--- a/Powershell/Document_Templates/ip_addresses.xlsx
+++ b/Powershell/Document_Templates/ip_addresses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bryank12gaus-my.sharepoint.com/personal/cvincent_bryan_k12_ga_us/Documents/Documents/GitHub/Book-of-Spells/Powershell/Document_Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005139D9-8E45-49DA-A14C-9376DAE524D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{005139D9-8E45-49DA-A14C-9376DAE524D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDC2DF8F-ABC9-4DE1-9E35-37FD95263583}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-435" windowWidth="29040" windowHeight="15720" xr2:uid="{7AD0F630-69E6-4A93-9B26-1E300CAA378F}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" xr2:uid="{7AD0F630-69E6-4A93-9B26-1E300CAA378F}"/>
   </bookViews>
   <sheets>
     <sheet name="ip_addresses" sheetId="1" r:id="rId1"/>
@@ -20,93 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>ipaddr</t>
-  </si>
-  <si>
-    <t>10.5.31.10</t>
-  </si>
-  <si>
-    <t>10.5.31.11</t>
-  </si>
-  <si>
-    <t>10.5.31.12</t>
-  </si>
-  <si>
-    <t>10.5.31.13</t>
-  </si>
-  <si>
-    <t>10.5.31.14</t>
-  </si>
-  <si>
-    <t>10.5.31.15</t>
-  </si>
-  <si>
-    <t>10.5.31.16</t>
-  </si>
-  <si>
-    <t>10.5.31.17</t>
-  </si>
-  <si>
-    <t>10.5.31.18</t>
-  </si>
-  <si>
-    <t>10.5.31.19</t>
-  </si>
-  <si>
-    <t>10.5.31.20</t>
-  </si>
-  <si>
-    <t>10.5.31.21</t>
-  </si>
-  <si>
-    <t>10.5.31.24</t>
-  </si>
-  <si>
-    <t>10.5.31.25</t>
-  </si>
-  <si>
-    <t>10.5.31.26</t>
-  </si>
-  <si>
-    <t>10.5.31.28</t>
-  </si>
-  <si>
-    <t>10.5.31.29</t>
-  </si>
-  <si>
-    <t>10.5.31.30</t>
-  </si>
-  <si>
-    <t>10.5.31.31</t>
-  </si>
-  <si>
-    <t>10.5.31.35</t>
-  </si>
-  <si>
-    <t>10.5.31.37</t>
-  </si>
-  <si>
-    <t>10.5.31.40</t>
-  </si>
-  <si>
-    <t>10.5.31.43</t>
-  </si>
-  <si>
-    <t>10.5.31.44</t>
-  </si>
-  <si>
-    <t>10.5.31.53</t>
-  </si>
-  <si>
-    <t>10.5.31.54</t>
-  </si>
-  <si>
-    <t>10.5.31.55</t>
-  </si>
-  <si>
-    <t>10.5.31.100</t>
   </si>
 </sst>
 </file>
@@ -967,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74455433-99C9-45DE-96C0-E76481054989}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A29"/>
+      <selection activeCell="A2" sqref="A2:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,146 +899,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
